--- a/medinfo/my_medications.xlsx
+++ b/medinfo/my_medications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,70 +498,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>타이레놀정500밀리그람(아세트아미노펜)</t>
+          <t>어린이부루펜시럽(이부프로펜)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>한국존슨앤드존슨판매(유)</t>
+          <t>삼일제약(주)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>아세트아미노펜</t>
+          <t>이부프로펜</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 약은 감기로 인한 발열 및 동통(통증), 두통, 신경통, 근육통, 월경통, 염좌통(삔 통증), 치통, 관절통, 류마티양 동통(통증)에 사용합니다
+          <t xml:space="preserve">이 약은 류마티양 관절염, 연소성 류마티양 관절염, 골관절염(퇴행성 관절질환), 감기로 인한 발열 및 동통, 요통, 월경곤란증, 수술후 동통과 강직성 척추염, 두통, 치통, 근육통, 신경통, 급성통풍, 건선성 관절염, 연조직손상(염좌, 좌상), 비관절 류마티스질환(건염, 건초염, 활액낭염)에 사용합니다.
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">만 12세 이상 소아 및 성인은 1회 1~2정씩, 1일 3~4회(4~6시간 마다) 필요시 복용합니다.
-이 약은 가능한 최단기간동안 최소 유효용량으로 복용하며, 1일 최대 8정(4 g)을 초과하여 복용하지 않습니다.
-</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">매일 세 잔 이상 정기적 음주자가 이 약 또는 다른 해열진통제를 복용할  때는 의사 또는 약사와 상의하십시오. 간손상을 일으킬 수 있습니다.
-매우 드물게 치명적일 수 있는 급성 전신성 발진성 고름물집증, 스티븐스-존슨 증후군, 독성 표피 괴사용해와 같은 중대한 피부반응이 보고되었고 이 약 복용후 피부발진 또는 다른 과민반응의 징후가 나타나는 경우 즉시 복용을 중단하십시오.
-아세트아미노펜으로 일일 최대 용량(4,000 mg)을 초과하여 복용하지 마십시오. 간손상을 일으킬 수 있습니다. 아세트아미노펜을 포함하는 다른 제품과 함께 복용하지 마십시오.
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">11~14세는 1회 200~250 mg (10~13 mL), 7~10세는 1회 150~200 mg (8~10 mL), 3~6세는 1회 100~150 mg (5~8 mL), 1~ 2세는 1회 50~100 mg (3~5 mL)을 1일 3~4회 복용합니다.
+체중이 30 kg 미만인 어린이는 1일량이 500 mg (25 mL)을 초과해서는 안되며 공복시 투여는 피하는 것이 바람직합니다.
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 약에 과민증, 소화성궤양, 심한 혈액 이상, 간장애, 신장(콩팥)장애, 심장기능저하 환자, 아스피린 천식(비스테로이드성 소염(항염)제에 의한 천식발작 유발) 환자 또는 경험자, 바르비탈계 약물 또는 삼환계 항우울제 복용한 환자, 알코올을 복용한 사람, 12세 미만의 소아는 이 약을 복용하지 마십시오.
-이 약을 복용하기 전에 과민증 경험자, 간장애, 신장(콩팥)장애, 소화성궤양, 혈액이상 환자 또는 경험자, 출혈경향, 심장기능이상이 있는 환자, 기관지천식 환자, 고령자(노인), 임부 또는 수유부, 글루타치온 보유량이 낮은 상태의 환자는 의사 또는 약사와 상의하십시오.
-복용 중에 음주하지 마십시오.
+          <t xml:space="preserve">이 약에 과민증 환자, 위장관궤양, 위장관출혈, 심한 혈액이상, 심한 간장애, 심한 신장장애, 심한 심장기능부전, 심한 고혈압, 기관지천식, 아스피린 또는 다른 소염진통제에 의한 천식, 두드러기, 알레르기 반응 경험 환자, 심장동맥 우회로술 전후 통증발생 환자, 임신 말기 3개월 기간의 임부, 수유부, 항암요법으로 고용량 메토트렉세이트를 투여 중인 환자, 갈락토오스 불내성, Lapp 유당분해효소 결핍증 또는 포도당-갈락토오스 흡수장애 등의 유전적인 문제가 있는 환자는 이 약을 복용하지 마십시오.
+권장용량을 초과하여 복용하지 마십시오.
+이 약을 복용하기 전에 혈액이상, 출혈경향 환자, 간경화, 간장애, 신장장애, 심장기능부전, 심질환, 고혈압, 전신홍반루푸스, 혼합결합조직질환, 궤양성대장염, 크론병, 노인, 만 2세 미만의 소아, 임부, 수두 환자는 의사 또는 약사와 상의하십시오.
+감기에 복용할 경우에는 원칙적으로 5일 이내로 복용하며 의사 또는 약사의 지시 없이 통증에 10일 이상(성인) 또는 5일 이상(소아) 복용하지 않고 발열에 3일 이상 복용하지 않습니다.
 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">바르비탈계 약물, 삼환계 항우울제 및 알코올을 투여한 환자, 와파린, 플루클록사실린을 복용하는 환자는 의사 또는 약사와 상의하십시오.
+          <t xml:space="preserve">항암요법으로 고용량 메토트렉세이트를 투여중인 환자, 다른 비스테로이드성 소염진통제와 함께 이 약을 복용하지 마십시오.
+이 약을 복용하기 전에 저용량 아스피린, ACE 저해제 복용자, 리튬, 푸로세미드 및 티아지드계 이뇨제, 저용량 메토트렉세이트, 쿠마린계 항응혈제(와파린 등), 선택적 세로토닌 재흡수억제를 복용하는 환자는 의사 또는 약사와 상의하십시오.
 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">쇽 증상(호흡곤란, 온몸이 붉어짐, 혈관부기, 두드러기 등), 천식발작, 혈소판감소, 과립구감소, 용혈성빈혈, 메트헤모글로빈혈증, 혈소판기능 저하(출혈시간 연장), 청색증, 과민증상(얼굴부기, 땀이 남, 저혈압), 구역, 구토, 식욕부진, 위장출혈, 소화성궤양, 천공(뚦림), 발진, 알레르기 반응, 피부점막안증후군(스티븐스-존슨증후군), 독성표피괴사증(리엘증후군), AST 상승, ALT 상승, 고정발진 등이 나타나는 경우 복용을 즉각 중지하고 의사 또는 약사와 상의하십시오.
+          <t xml:space="preserve">쇽(호흡곤란, 혈압저하 등), 헤마토크리트감소, 헤모글로빈감소, 빈혈, 재생불량성빈혈, 용혈성빈혈, 무과립구증, 과립구감소, 백혈구감소, 혈소판감소, 혈소판기능저하, 호산구증가 등의 혈액장애, 소화성궤양, 위장관궤양, 위장출혈, 천공(뚫림), 궤양성대장염, 혈변, 위염, 췌장염, 혈액구토, 크론병, 식욕부진, 구역, 구토, 복통, 소화불량, 설사, 위부불쾌감, 상복부통증, 구갈, 구내염, 복부팽만감, 구강궤양, 변비, 흑변, 피부점막안증후군(스티븐스-존슨증후군), 독성표피괴사용해, 빈도불명의 호산구증가 및 전신 증후군을 동반한 약물 발진, 혈관신경성 부종, 수포성피부염, 다형홍반, 반구진 발진, 피부 붉어짐, 물집, 발진, 간염, 황달, 간기능이상, 간장애, 과민증 또는 아나필락시스 반응, 천식발작, 두드러기, 습진, 자주색반점, 시각장애, 귀먹음, 귀울림, 미각이상, 현기증, 졸음, 어지러움, 우울, 두통, 뇌혈관사고 또는 신경질, 무균성수막염 또는 수막염(심한 두통, 구역, 구토, 불면, 목이 뻣뻣함, 발열 또는 의식장애, 급성신부전, 소변감소, 혈뇨, 요단백, BUN, 혈중크레아티닌의 상승, 고칼륨혈증, 간질성 콩팥염, 콩팥염증후군, 콩팥유두괴사, 요량감소, 전신부종 및 이에 수반하는 숨가쁨, 나른함, 눈주변부기, 얼굴부기, 권태감, 발열, 코피, 부기, 말초부종 등이 나타나면 즉각 복용을 중지하고 의사 또는 약사와 상의하십시오.
 </t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">실온에서 보관하십시오.
+          <t xml:space="preserve">빛을 피해 실온에서 보관하십시오.
 어린이의 손이 닿지 않는 곳에 보관하십시오.
 </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>02:55</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -569,150 +564,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>훼스탈골드정</t>
+          <t>게보린정(수출명:돌로린정)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(주)한독</t>
+          <t>삼진제약(주)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>판크레아틴,디아스타제·프로테아제·셀룰라제,프로자임6,리파제,셀룰라제,우르소데옥시콜산,시메티콘</t>
+          <t>아세트아미노펜,카페인무수물,이소프로필안티피린</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 약은 소화불량, 식욕감퇴(식욕부진), 과식, 체함, 소화촉진, 소화불량으로 인한 위부팽만감에 사용합니다.
+          <t xml:space="preserve">이 약은 두통, 치통, 발치(이를 뽑음)후 동통(통증), 인후(목구멍)통, 귀의 통증, 관절통, 신경통, 요(허리)통, 근육통, 견통(어깨통증), 타박통, 골절통, 염좌통(삔 통증), 월경통(생리통), 외상(상처)통의 진통과 오한(춥고 떨리는 증상), 발열시의 해열에 사용합니다.
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">성인은 1회 1정씩, 1일 3회 식후에 씹지말고 복용합니다.
-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">만 7세 이하의 어린이는 이 약을 복용하지 마십시오.
-이 약을 복용하기 전에 알레르기 체질인 환자, 임부 또는 임신하고 있을 가능성이 있는 여성은 의사 또는 약사와 상의하십시오.
-정해진 용법과 용량을 잘 지키십시오.
-2주 정도 복용하여도 증상의 개선이 없을 경우 복용을 즉각 중지하고 의사 또는 약사와 상의하십시오.
-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">습기와 빛을 피해 실온에서 보관하십시오.
-어린이의 손이 닿지 않는 곳에 보관하십시오.
-</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>02:43</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>식전</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>어린이부루펜시럽(이부프로펜)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>삼일제약(주)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>이부프로펜</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">이 약은 류마티양 관절염, 연소성 류마티양 관절염, 골관절염(퇴행성 관절질환), 감기로 인한 발열 및 동통, 요통, 월경곤란증, 수술후 동통과 강직성 척추염, 두통, 치통, 근육통, 신경통, 급성통풍, 건선성 관절염, 연조직손상(염좌, 좌상), 비관절 류마티스질환(건염, 건초염, 활액낭염)에 사용합니다.
-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11~14세는 1회 200~250 mg (10~13 mL), 7~10세는 1회 150~200 mg (8~10 mL), 3~6세는 1회 100~150 mg (5~8 mL), 1~ 2세는 1회 50~100 mg (3~5 mL)을 1일 3~4회 복용합니다.
-체중이 30 kg 미만인 어린이는 1일량이 500 mg (25 mL)을 초과해서는 안되며 공복시 투여는 피하는 것이 바람직합니다.
-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">이 약에 과민증 환자, 위장관궤양, 위장관출혈, 심한 혈액이상, 심한 간장애, 심한 신장장애, 심한 심장기능부전, 심한 고혈압, 기관지천식, 아스피린 또는 다른 소염진통제에 의한 천식, 두드러기, 알레르기 반응 경험 환자, 심장동맥 우회로술 전후 통증발생 환자, 임신 말기 3개월 기간의 임부, 수유부, 항암요법으로 고용량 메토트렉세이트를 투여 중인 환자, 갈락토오스 불내성, Lapp 유당분해효소 결핍증 또는 포도당-갈락토오스 흡수장애 등의 유전적인 문제가 있는 환자는 이 약을 복용하지 마십시오.
-권장용량을 초과하여 복용하지 마십시오.
-이 약을 복용하기 전에 혈액이상, 출혈경향 환자, 간경화, 간장애, 신장장애, 심장기능부전, 심질환, 고혈압, 전신홍반루푸스, 혼합결합조직질환, 궤양성대장염, 크론병, 노인, 만 2세 미만의 소아, 임부, 수두 환자는 의사 또는 약사와 상의하십시오.
-감기에 복용할 경우에는 원칙적으로 5일 이내로 복용하며 의사 또는 약사의 지시 없이 통증에 10일 이상(성인) 또는 5일 이상(소아) 복용하지 않고 발열에 3일 이상 복용하지 않습니다.
-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">항암요법으로 고용량 메토트렉세이트를 투여중인 환자, 다른 비스테로이드성 소염진통제와 함께 이 약을 복용하지 마십시오.
-이 약을 복용하기 전에 저용량 아스피린, ACE 저해제 복용자, 리튬, 푸로세미드 및 티아지드계 이뇨제, 저용량 메토트렉세이트, 쿠마린계 항응혈제(와파린 등), 선택적 세로토닌 재흡수억제를 복용하는 환자는 의사 또는 약사와 상의하십시오.
-</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">쇽(호흡곤란, 혈압저하 등), 헤마토크리트감소, 헤모글로빈감소, 빈혈, 재생불량성빈혈, 용혈성빈혈, 무과립구증, 과립구감소, 백혈구감소, 혈소판감소, 혈소판기능저하, 호산구증가 등의 혈액장애, 소화성궤양, 위장관궤양, 위장출혈, 천공(뚫림), 궤양성대장염, 혈변, 위염, 췌장염, 혈액구토, 크론병, 식욕부진, 구역, 구토, 복통, 소화불량, 설사, 위부불쾌감, 상복부통증, 구갈, 구내염, 복부팽만감, 구강궤양, 변비, 흑변, 피부점막안증후군(스티븐스-존슨증후군), 독성표피괴사용해, 빈도불명의 호산구증가 및 전신 증후군을 동반한 약물 발진, 혈관신경성 부종, 수포성피부염, 다형홍반, 반구진 발진, 피부 붉어짐, 물집, 발진, 간염, 황달, 간기능이상, 간장애, 과민증 또는 아나필락시스 반응, 천식발작, 두드러기, 습진, 자주색반점, 시각장애, 귀먹음, 귀울림, 미각이상, 현기증, 졸음, 어지러움, 우울, 두통, 뇌혈관사고 또는 신경질, 무균성수막염 또는 수막염(심한 두통, 구역, 구토, 불면, 목이 뻣뻣함, 발열 또는 의식장애, 급성신부전, 소변감소, 혈뇨, 요단백, BUN, 혈중크레아티닌의 상승, 고칼륨혈증, 간질성 콩팥염, 콩팥염증후군, 콩팥유두괴사, 요량감소, 전신부종 및 이에 수반하는 숨가쁨, 나른함, 눈주변부기, 얼굴부기, 권태감, 발열, 코피, 부기, 말초부종 등이 나타나면 즉각 복용을 중지하고 의사 또는 약사와 상의하십시오.
-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">빛을 피해 실온에서 보관하십시오.
-어린이의 손이 닿지 않는 곳에 보관하십시오.
-</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>02:55</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>게보린정(수출명:돌로린정)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>삼진제약(주)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>아세트아미노펜,카페인무수물,이소프로필안티피린</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">이 약은 두통, 치통, 발치(이를 뽑음)후 동통(통증), 인후(목구멍)통, 귀의 통증, 관절통, 신경통, 요(허리)통, 근육통, 견통(어깨통증), 타박통, 골절통, 염좌통(삔 통증), 월경통(생리통), 외상(상처)통의 진통과 오한(춥고 떨리는 증상), 발열시의 해열에 사용합니다.
-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">성인은 1회 1정 1일 3회까지 공복시를 피해 복용합니다.
 복용간격은 4시간 이상으로 합니다.
@@ -720,46 +591,46 @@
 </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">매일 세잔 이상 정기적 음주자가 이 약 또는 다른 해열진통제를 복용할 때는 의사 또는 약사와 상의하십시오. 간손상을 일으킬 수 있습니다.
 아세트아미노펜으로 일일 최대 용량(4,000 mg)을 초과하여 복용하지 마십시오. 간손상을 일으킬 수 있습니다. 아세트아미노펜을 포함하는 다른 제품과 함께 복용하지 마십시오.
 </t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve">이 약에 과민증 환자, 다른 해열진통제(비스테로이드성 소염제), 감기약 복용시 천식발작 유발 또는 그 경험자, 글루코스-6-인산 탈수소효소결핍증, 급성 간헐성(시간 간격을 두고 되풀이하여) 포르피린증, 과립백혈구감소증, 중증 간장애, 중증 신장애, 출혈 소인, 15세 미만의 소아, 소화성궤양, 심한 혈액 이상, 심한 심장기능저하, 바르비탈계 약물, 삼환계 항우울제, 알코올을 복용한 환자는 이 약을 복용하지 마십시오.
 이 약을 복용하기 전에 수두 또는 인플루엔자에 감염되어 있거나 또는 의심되는 15세 이상의 청소년, 갑상샘질환, 당뇨병, 고혈압, 몸이 약한 사람, 고열, 고령자, 임부 또는 임신하고 있을 가능성이 있는 여성, 수유부, 속쓰림, 위부불쾌감, 위통과 같은 위장문제가 지속 혹은 재발되는 사람, 간장애, 신장(콩팥)장애, 소화성궤양, 혈액이상, 출혈경향이 있는 환자, 심장기능이상, 기관지천식 환자는 의사 또는 약사와 상의하십시오.
 </t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">바르비탈계 약물, 삼환계 항우울제, 다른 소염(항염)진통제, 다른 해열진통제, 아세트아미노펜을 포함하는 다른 제품, 알코올과 함께 이 약을 복용하지 마십시오.
 이 약을 복용하기 전에 와파린, 리튬, 티아지드계 이뇨제를 복용한 환자는 의사 또는 약사와 상의하십시오.
 </t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t xml:space="preserve">쇽 증상(호흡곤란, 온몸이 붉어짐, 혈관부기, 두드러기 등), 천식발작, 혈소판 감소, 과립구감소, 용혈성빈혈, 메트헤모글로빈혈증, 혈소판기능 저하(출혈시간 연장), 청색증, 구역, 구토, 식욕부진, 위장출혈, 소화성궤양, 천공(뚫림), 발진, 피부점막안증후군(스티븐스-존슨증후군), 독성표피괴사용해(리엘증후군: 고열을 수반하며 발진, 발적 충혈되어 붉어짐, 화상모양 수포 등의 격렬한 증상이 전신피부, 입 및 눈의 점막에 나타난 경우), 전신의 나른함, 황달, 간질성폐렴(기침, 숨이참, 호흡곤란, 발열), 간기능이상, 고정발진 등이 나타나는 경우 복용을 즉각 중지하고 의사 또는 약사와 상의하십시오.
 </t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t xml:space="preserve">습기와 빛을 피해 실온에서 보관하십시오.
 어린이의 손이 닿지 않는 곳에 보관하십시오.
 </t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>식전</t>
         </is>

--- a/medinfo/my_medications.xlsx
+++ b/medinfo/my_medications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +636,79 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>타이레놀8시간이알서방정(아세트아미노펜)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>한국존슨앤드존슨판매(유)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>아세트아미노펜</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 약은 해열 및 감기에 의한 동통(통증)과 두통, 치통, 근육통, 허리통증, 생리통, 관절통의 완화에 사용합니다.
+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12세 이상의 소아와 성인은 1회 2정을 매 8시간마다 복용합니다. 24시간 동안 6정을 초과하지 마십시오.
+이 약은 서방형 제제이므로 정제를 으깨거나 씹거나 녹이지 말고 그대로 삼켜서 복용하십시오.
+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">매일 세잔 이상 정기적 음주자가 이 약 또는 다른 해열진통제를 복용할 때는 의사 또는 약사와 상의하십시오. 간손상을 일으킬 수 있습니다.
+매우 드물게 치명적일 수 있는 급성전신성발진고름물집증, 스티븐스-존슨증후군, 독성표피괴사용해와 같은 중대한 피부반응이 보고되었고 이 약 복용 후 피부발진 또는 다른 과민반응의 징후가 나타나는 경우 즉시 복용을 중단하십시오.
+아세트아미노펜으로 일일 최대 용량(4,000 mg)을 초과하여 복용하지 마십시오. 간손상을 일으킬 수 있습니다. 아세트아미노펜을 포함하는 다른 제품과 함께 복용하지 마십시오.
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 약에 과민증, 소화성궤양, 심한 혈액 이상 환자, 심한 간장애, 심한 신장(콩팥)장애, 심한 심장기능저하, 아스피린 천식(비스테로이드성 소염(항염)제에 의한 천식발작 유발) 또는 경험자, 바르비탈계 약물 또는 삼환계 항우울제 복용한 환자, 알코올을 복용한 사람, 12세 미만의 소아는 이 약을 복용하지 마십시오.
+이 약을 복용하기 전에 간장애 또는 경험자, 신장(콩팥)장애 또는 경험자, 소화성궤양의 경험자, 혈액이상 또는 경험자, 출혈경향이 있는 환자, 심장기능이상이 있는 환자, 과민증의 경험자, 기관지천식 환자, 고령자(노인), 임부 또는 수유부, 글루타치온 보유량이 낮은 상태의 환자는 의사 또는 약사와 상의하십시오.
+</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">와파린, 플루클록사실린을 복용하는 환자는 의사 또는 약사와 상의하십시오.
+</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">쇽 증상(호흡곤란, 온몸이 붉어짐, 혈관부기, 두드러기 등), 천식발작, 혈소판감소, 과립구감소, 용혈성빈혈, 메트헤모글로빈혈증, 혈소판기능 저하(출혈시간 연장), 청색증, 과민증상(얼굴부기, 땀이 남, 저혈압), 구역, 구토, 식욕부진, 위장출혈, 소화성궤양, 천공(뚦림), 발진, 피부점막안증후군(스티븐스-존슨증후군), 독성표피괴사증(리엘증후군), AST 상승, ALT 상승, 고정발진 등이 나타나는 경우 복용을 즉각 중지하고 의사 또는 약사와 상의하십시오.
+</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">실온에서 보관하십시오. 어린이의 손이 닿지 않는 곳에 보관하십시오.
+</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>공복</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/medinfo/my_medications.xlsx
+++ b/medinfo/my_medications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,33 +498,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>타이레놀정500밀리그람(아세트아미노펜)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>한국존슨앤드존슨판매(유)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>아세트아미노펜</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 약은 감기로 인한 발열 및 동통(통증), 두통, 신경통, 근육통, 월경통, 염좌통(삔 통증), 치통, 관절통, 류마티양 동통(통증)에 사용합니다
+</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">만 12세 이상 소아 및 성인은 1회 1~2정씩, 1일 3~4회(4~6시간 마다) 필요시 복용합니다.
+이 약은 가능한 최단기간동안 최소 유효용량으로 복용하며, 1일 최대 8정(4 g)을 초과하여 복용하지 않습니다.
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">매일 세 잔 이상 정기적 음주자가 이 약 또는 다른 해열진통제를 복용할  때는 의사 또는 약사와 상의하십시오. 간손상을 일으킬 수 있습니다.
+매우 드물게 치명적일 수 있는 급성 전신성 발진성 고름물집증, 스티븐스-존슨 증후군, 독성 표피 괴사용해와 같은 중대한 피부반응이 보고되었고 이 약 복용후 피부발진 또는 다른 과민반응의 징후가 나타나는 경우 즉시 복용을 중단하십시오.
+아세트아미노펜으로 일일 최대 용량(4,000 mg)을 초과하여 복용하지 마십시오. 간손상을 일으킬 수 있습니다. 아세트아미노펜을 포함하는 다른 제품과 함께 복용하지 마십시오.
+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 약에 과민증, 소화성궤양, 심한 혈액 이상, 간장애, 신장(콩팥)장애, 심장기능저하 환자, 아스피린 천식(비스테로이드성 소염(항염)제에 의한 천식발작 유발) 환자 또는 경험자, 바르비탈계 약물 또는 삼환계 항우울제 복용한 환자, 알코올을 복용한 사람, 12세 미만의 소아는 이 약을 복용하지 마십시오.
+이 약을 복용하기 전에 과민증 경험자, 간장애, 신장(콩팥)장애, 소화성궤양, 혈액이상 환자 또는 경험자, 출혈경향, 심장기능이상이 있는 환자, 기관지천식 환자, 고령자(노인), 임부 또는 수유부, 글루타치온 보유량이 낮은 상태의 환자는 의사 또는 약사와 상의하십시오.
+복용 중에 음주하지 마십시오.
+</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">바르비탈계 약물, 삼환계 항우울제 및 알코올을 투여한 환자, 와파린, 플루클록사실린을 복용하는 환자는 의사 또는 약사와 상의하십시오.
+</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">쇽 증상(호흡곤란, 온몸이 붉어짐, 혈관부기, 두드러기 등), 천식발작, 혈소판감소, 과립구감소, 용혈성빈혈, 메트헤모글로빈혈증, 혈소판기능 저하(출혈시간 연장), 청색증, 과민증상(얼굴부기, 땀이 남, 저혈압), 구역, 구토, 식욕부진, 위장출혈, 소화성궤양, 천공(뚦림), 발진, 알레르기 반응, 피부점막안증후군(스티븐스-존슨증후군), 독성표피괴사증(리엘증후군), AST 상승, ALT 상승, 고정발진 등이 나타나는 경우 복용을 즉각 중지하고 의사 또는 약사와 상의하십시오.
+</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">실온에서 보관하십시오.
+어린이의 손이 닿지 않는 곳에 보관하십시오.
+</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>훼스탈골드정</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>(주)한독</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>판크레아틴,디아스타제·프로테아제·셀룰라제,프로자임6,리파제,셀룰라제,우르소데옥시콜산,시메티콘</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">이 약은 소화불량, 식욕감퇴(식욕부진), 과식, 체함, 소화촉진, 소화불량으로 인한 위부팽만감에 사용합니다.
 </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">성인은 1회 1정씩, 1일 3회 식후에 씹지말고 복용합니다.
 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve">만 7세 이하의 어린이는 이 약을 복용하지 마십시오.
 이 약을 복용하기 전에 알레르기 체질인 환자, 임부 또는 임신하고 있을 가능성이 있는 여성은 의사 또는 약사와 상의하십시오.
@@ -533,57 +604,57 @@
 </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t xml:space="preserve">습기와 빛을 피해 실온에서 보관하십시오.
 어린이의 손이 닿지 않는 곳에 보관하십시오.
 </t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>02:43</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>식전</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>어린이부루펜시럽(이부프로펜)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>삼일제약(주)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>이부프로펜</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">이 약은 류마티양 관절염, 연소성 류마티양 관절염, 골관절염(퇴행성 관절질환), 감기로 인한 발열 및 동통, 요통, 월경곤란증, 수술후 동통과 강직성 척추염, 두통, 치통, 근육통, 신경통, 급성통풍, 건선성 관절염, 연조직손상(염좌, 좌상), 비관절 류마티스질환(건염, 건초염, 활액낭염)에 사용합니다.
 </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">11~14세는 1회 200~250 mg (10~13 mL), 7~10세는 1회 150~200 mg (8~10 mL), 3~6세는 1회 100~150 mg (5~8 mL), 1~ 2세는 1회 50~100 mg (3~5 mL)을 1일 3~4회 복용합니다.
 체중이 30 kg 미만인 어린이는 1일량이 500 mg (25 mL)을 초과해서는 안되며 공복시 투여는 피하는 것이 바람직합니다.
 </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve">이 약에 과민증 환자, 위장관궤양, 위장관출혈, 심한 혈액이상, 심한 간장애, 심한 신장장애, 심한 심장기능부전, 심한 고혈압, 기관지천식, 아스피린 또는 다른 소염진통제에 의한 천식, 두드러기, 알레르기 반응 경험 환자, 심장동맥 우회로술 전후 통증발생 환자, 임신 말기 3개월 기간의 임부, 수유부, 항암요법으로 고용량 메토트렉세이트를 투여 중인 환자, 갈락토오스 불내성, Lapp 유당분해효소 결핍증 또는 포도당-갈락토오스 흡수장애 등의 유전적인 문제가 있는 환자는 이 약을 복용하지 마십시오.
 권장용량을 초과하여 복용하지 마십시오.
@@ -592,56 +663,56 @@
 </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">항암요법으로 고용량 메토트렉세이트를 투여중인 환자, 다른 비스테로이드성 소염진통제와 함께 이 약을 복용하지 마십시오.
 이 약을 복용하기 전에 저용량 아스피린, ACE 저해제 복용자, 리튬, 푸로세미드 및 티아지드계 이뇨제, 저용량 메토트렉세이트, 쿠마린계 항응혈제(와파린 등), 선택적 세로토닌 재흡수억제를 복용하는 환자는 의사 또는 약사와 상의하십시오.
 </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t xml:space="preserve">쇽(호흡곤란, 혈압저하 등), 헤마토크리트감소, 헤모글로빈감소, 빈혈, 재생불량성빈혈, 용혈성빈혈, 무과립구증, 과립구감소, 백혈구감소, 혈소판감소, 혈소판기능저하, 호산구증가 등의 혈액장애, 소화성궤양, 위장관궤양, 위장출혈, 천공(뚫림), 궤양성대장염, 혈변, 위염, 췌장염, 혈액구토, 크론병, 식욕부진, 구역, 구토, 복통, 소화불량, 설사, 위부불쾌감, 상복부통증, 구갈, 구내염, 복부팽만감, 구강궤양, 변비, 흑변, 피부점막안증후군(스티븐스-존슨증후군), 독성표피괴사용해, 빈도불명의 호산구증가 및 전신 증후군을 동반한 약물 발진, 혈관신경성 부종, 수포성피부염, 다형홍반, 반구진 발진, 피부 붉어짐, 물집, 발진, 간염, 황달, 간기능이상, 간장애, 과민증 또는 아나필락시스 반응, 천식발작, 두드러기, 습진, 자주색반점, 시각장애, 귀먹음, 귀울림, 미각이상, 현기증, 졸음, 어지러움, 우울, 두통, 뇌혈관사고 또는 신경질, 무균성수막염 또는 수막염(심한 두통, 구역, 구토, 불면, 목이 뻣뻣함, 발열 또는 의식장애, 급성신부전, 소변감소, 혈뇨, 요단백, BUN, 혈중크레아티닌의 상승, 고칼륨혈증, 간질성 콩팥염, 콩팥염증후군, 콩팥유두괴사, 요량감소, 전신부종 및 이에 수반하는 숨가쁨, 나른함, 눈주변부기, 얼굴부기, 권태감, 발열, 코피, 부기, 말초부종 등이 나타나면 즉각 복용을 중지하고 의사 또는 약사와 상의하십시오.
 </t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t xml:space="preserve">빛을 피해 실온에서 보관하십시오.
 어린이의 손이 닿지 않는 곳에 보관하십시오.
 </t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>02:55</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>게보린정(수출명:돌로린정)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>삼진제약(주)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>아세트아미노펜,카페인무수물,이소프로필안티피린</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">이 약은 두통, 치통, 발치(이를 뽑음)후 동통(통증), 인후(목구멍)통, 귀의 통증, 관절통, 신경통, 요(허리)통, 근육통, 견통(어깨통증), 타박통, 골절통, 염좌통(삔 통증), 월경통(생리통), 외상(상처)통의 진통과 오한(춥고 떨리는 증상), 발열시의 해열에 사용합니다.
 </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">성인은 1회 1정 1일 3회까지 공복시를 피해 복용합니다.
 복용간격은 4시간 이상으로 합니다.
@@ -649,46 +720,46 @@
 </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t xml:space="preserve">매일 세잔 이상 정기적 음주자가 이 약 또는 다른 해열진통제를 복용할 때는 의사 또는 약사와 상의하십시오. 간손상을 일으킬 수 있습니다.
 아세트아미노펜으로 일일 최대 용량(4,000 mg)을 초과하여 복용하지 마십시오. 간손상을 일으킬 수 있습니다. 아세트아미노펜을 포함하는 다른 제품과 함께 복용하지 마십시오.
 </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve">이 약에 과민증 환자, 다른 해열진통제(비스테로이드성 소염제), 감기약 복용시 천식발작 유발 또는 그 경험자, 글루코스-6-인산 탈수소효소결핍증, 급성 간헐성(시간 간격을 두고 되풀이하여) 포르피린증, 과립백혈구감소증, 중증 간장애, 중증 신장애, 출혈 소인, 15세 미만의 소아, 소화성궤양, 심한 혈액 이상, 심한 심장기능저하, 바르비탈계 약물, 삼환계 항우울제, 알코올을 복용한 환자는 이 약을 복용하지 마십시오.
 이 약을 복용하기 전에 수두 또는 인플루엔자에 감염되어 있거나 또는 의심되는 15세 이상의 청소년, 갑상샘질환, 당뇨병, 고혈압, 몸이 약한 사람, 고열, 고령자, 임부 또는 임신하고 있을 가능성이 있는 여성, 수유부, 속쓰림, 위부불쾌감, 위통과 같은 위장문제가 지속 혹은 재발되는 사람, 간장애, 신장(콩팥)장애, 소화성궤양, 혈액이상, 출혈경향이 있는 환자, 심장기능이상, 기관지천식 환자는 의사 또는 약사와 상의하십시오.
 </t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">바르비탈계 약물, 삼환계 항우울제, 다른 소염(항염)진통제, 다른 해열진통제, 아세트아미노펜을 포함하는 다른 제품, 알코올과 함께 이 약을 복용하지 마십시오.
 이 약을 복용하기 전에 와파린, 리튬, 티아지드계 이뇨제를 복용한 환자는 의사 또는 약사와 상의하십시오.
 </t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t xml:space="preserve">쇽 증상(호흡곤란, 온몸이 붉어짐, 혈관부기, 두드러기 등), 천식발작, 혈소판 감소, 과립구감소, 용혈성빈혈, 메트헤모글로빈혈증, 혈소판기능 저하(출혈시간 연장), 청색증, 구역, 구토, 식욕부진, 위장출혈, 소화성궤양, 천공(뚫림), 발진, 피부점막안증후군(스티븐스-존슨증후군), 독성표피괴사용해(리엘증후군: 고열을 수반하며 발진, 발적 충혈되어 붉어짐, 화상모양 수포 등의 격렬한 증상이 전신피부, 입 및 눈의 점막에 나타난 경우), 전신의 나른함, 황달, 간질성폐렴(기침, 숨이참, 호흡곤란, 발열), 간기능이상, 고정발진 등이 나타나는 경우 복용을 즉각 중지하고 의사 또는 약사와 상의하십시오.
 </t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t xml:space="preserve">습기와 빛을 피해 실온에서 보관하십시오.
 어린이의 손이 닿지 않는 곳에 보관하십시오.
 </t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>식전</t>
         </is>
